--- a/TestData/PCC.xlsx
+++ b/TestData/PCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uma.pal\eclipse-workspace\ComparisionJSONAndXML\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CABBA7-7B43-4E3F-A891-2D3D8E08B9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46EAFD-E967-4F22-B859-F51E57018AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D231BA9E-3960-4CC2-BCD0-4BF55A85D806}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>Core</t>
   </si>
@@ -144,6 +144,198 @@
   </si>
   <si>
     <t>PCC</t>
+  </si>
+  <si>
+    <t>IATA</t>
+  </si>
+  <si>
+    <t>HcaProfileID</t>
+  </si>
+  <si>
+    <t>ODTS_1G_680I_B58AEF</t>
+  </si>
+  <si>
+    <t>62HA</t>
+  </si>
+  <si>
+    <t>ODTS_1G_62HA_9FA9AE</t>
+  </si>
+  <si>
+    <t>ODTS_1G_79JP_9FA7E1</t>
+  </si>
+  <si>
+    <t>O1P</t>
+  </si>
+  <si>
+    <t>ODTS_1G_O1P_9FA9B7</t>
+  </si>
+  <si>
+    <t>51MG</t>
+  </si>
+  <si>
+    <t>ODTS_1G_51MG_9FADBA</t>
+  </si>
+  <si>
+    <t>1EO</t>
+  </si>
+  <si>
+    <t>ODTS_1G_1EO_9FADBD</t>
+  </si>
+  <si>
+    <t>01Q</t>
+  </si>
+  <si>
+    <t>ODTS_1G_01Q_9FADAD</t>
+  </si>
+  <si>
+    <t>31RB</t>
+  </si>
+  <si>
+    <t>ODTS_1G_31RB_9FAEFC</t>
+  </si>
+  <si>
+    <t>86W0</t>
+  </si>
+  <si>
+    <t>ODTS_1G_86W0_9FAEF1</t>
+  </si>
+  <si>
+    <t>8I59</t>
+  </si>
+  <si>
+    <t>ODTS_1G_8I59_9FAF19</t>
+  </si>
+  <si>
+    <t>5KL6</t>
+  </si>
+  <si>
+    <t>ODTS_1G_5KL6_9FA87C</t>
+  </si>
+  <si>
+    <t>39RA</t>
+  </si>
+  <si>
+    <t>ODTS_1G_39RA_9FB684</t>
+  </si>
+  <si>
+    <t>8BI2</t>
+  </si>
+  <si>
+    <t>ODTS_1G_8BI2_7A2F50</t>
+  </si>
+  <si>
+    <t>ODTS_1G_682J_9FAE35</t>
+  </si>
+  <si>
+    <t>594R</t>
+  </si>
+  <si>
+    <t>ODTS_1G_594R_B591C3</t>
+  </si>
+  <si>
+    <t>ODTS_1G_XB7_9FAA15</t>
+  </si>
+  <si>
+    <t>EVO_1G_DU7_9FA7C5</t>
+  </si>
+  <si>
+    <t>34J2</t>
+  </si>
+  <si>
+    <t>ODTS_1G_34J2_9FA882</t>
+  </si>
+  <si>
+    <t>3J64</t>
+  </si>
+  <si>
+    <t>ODTS_1G_3J64_9FA80F</t>
+  </si>
+  <si>
+    <t>U22 </t>
+  </si>
+  <si>
+    <t>ODTS_1G_U22_9FA8EA</t>
+  </si>
+  <si>
+    <t>34J3</t>
+  </si>
+  <si>
+    <t>ODTS_1G_34J3_9FA87D</t>
+  </si>
+  <si>
+    <t>8AN9</t>
+  </si>
+  <si>
+    <t>ODTS_1G_8AN9_9FA896</t>
+  </si>
+  <si>
+    <t>8M7G</t>
+  </si>
+  <si>
+    <t>UAPI_1G_8M7G_BB7335</t>
+  </si>
+  <si>
+    <t>7E8M</t>
+  </si>
+  <si>
+    <t>ODTS_1G_7E8M_9FAABA</t>
+  </si>
+  <si>
+    <t>56XF</t>
+  </si>
+  <si>
+    <t>ODTS_1G_56XF_9FAAF1</t>
+  </si>
+  <si>
+    <t>78PL</t>
+  </si>
+  <si>
+    <t>ODTS_1G_78PL_9FAA91</t>
+  </si>
+  <si>
+    <t>J40 </t>
+  </si>
+  <si>
+    <t>ODTS_1G_J40_9FAAD9</t>
+  </si>
+  <si>
+    <t>3J5U</t>
+  </si>
+  <si>
+    <t>ODTS_1G_3J5U_9FAB10</t>
+  </si>
+  <si>
+    <t>67AF</t>
+  </si>
+  <si>
+    <t>ODTS_1G_67AF_9FAB0B</t>
+  </si>
+  <si>
+    <t>3M4M</t>
+  </si>
+  <si>
+    <t>ODTS_1G_3M4M_9FAA90</t>
+  </si>
+  <si>
+    <t>3U5 </t>
+  </si>
+  <si>
+    <t>ODTS_1G_3U5_9FAAA2</t>
+  </si>
+  <si>
+    <t>8K9E</t>
+  </si>
+  <si>
+    <t>ODTS_1G_8K9E_9FA9A9</t>
+  </si>
+  <si>
+    <t>6TZ4</t>
+  </si>
+  <si>
+    <t>UAPI_1G_6TZ4_BCDDBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -179,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,11 +394,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +421,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,18 +750,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A6C72C-D575-4430-B336-5FD75A96DF8F}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="56.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -552,8 +774,20 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -563,8 +797,16 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -574,8 +816,10 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -585,8 +829,10 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -596,8 +842,14 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="2">
+        <v>2355662</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -607,8 +859,10 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -618,8 +872,10 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -629,8 +885,12 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -640,8 +900,14 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>2026159</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -651,8 +917,10 @@
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -662,8 +930,10 @@
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -673,8 +943,10 @@
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -684,8 +956,10 @@
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -695,8 +969,10 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -706,19 +982,392 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>